--- a/rolar_opcoes_BBSE3_BBSET230_BBSEU230.xlsx
+++ b/rolar_opcoes_BBSE3_BBSET230_BBSEU230.xlsx
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>21.48</v>
+        <v>21.49</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="F3" t="n">
         <v>1.46</v>
@@ -572,7 +572,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
